--- a/jac2020/app/ehrm/WorkflowTaxonomy/WorkflowTaxonomyComments.xlsx
+++ b/jac2020/app/ehrm/WorkflowTaxonomy/WorkflowTaxonomyComments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ArchitectsCompanion\jac2020\app\ehrm\WorkflowTaxonomy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{061B9A80-DAA1-4F58-B5FB-0FB26C587E19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB04FDC-ED49-4EE1-BC04-AD9375E5732C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595"/>
   </bookViews>
@@ -20,201 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
-  <si>
-    <t>wf1866</t>
-  </si>
-  <si>
-    <t>1VA - VBA - Exam-Management (IOC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--PowerChart : Search and View Medical Records 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--PowerForm : Form 2507 to Document Requested DBQs 
-Interfaces: 
--
-ORM : New Order Request Entered by VBA : Notify VBMS that exam is ordered ( 
-Post IOC) 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--Clinical Reporting XR : Generic Encounter 
-Interfaces: 
--Manual 
-upload to VBMS Folder 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--Message Center : 2507 Message Template 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--Message Center : Message Pool 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--PowerChart : Review Order 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Interfaces: 
--ORR : Notify VBMS that exam request is accepted. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Question: How is this message sent / received at IOC? 
-Interfaces: 
--ORR : 
-VBA Staff Discontinue Order Request : Notify VBMS of order discontinued as 
-requested (post IOC) 
--ORR : VHA User Requests Clarification : VHA reviews 
-Exam Request and requests clarification (post IOC) 
--ORM : VHA User Requests 
-Clarification : VHA reviews Exam Request and requests clarification (post IOC) 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: VBA is requesting a pdf document be sent that can be loaded in the Veteran's 
-eFolder 
-Interfaces: 
--Reject PDF to Veteran's eFolder (IOC) 
--ORR : Order 
-Request Canceled by VHA Staff (Post IOC) 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Note: Sub-flow belongs to Scheduling Council 
-Products: 
--Cerner Scheduling 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--Ambulatory Organizer : Clinician's view of scheduled appointments 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--PowerChart : Mpage : Assessment Component 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Interfaces: 
--SIU_Z01 : C&amp;P Exam is checked in : Notify VBMS that exam is 
-checked in (post IOC) 
--ORM : C&amp;P Exam is Completed : Notify VBMS that exam 
-occurred (post IOC) 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--Revenue Cycle : Patient Access 
-</t>
-  </si>
-  <si>
-    <t>wf1987</t>
-  </si>
-  <si>
-    <t>1VA - VBA - Perform Examination (IOC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--PowerForm : 2507 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--PowerChart : 
--VBMS 
--CAPRI 
--JLV 
--AHLTA 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--PowerChart : PowerForm : Specific DBQ 
-</t>
-  </si>
-  <si>
-    <t>wf1873</t>
-  </si>
-  <si>
-    <t>1VA - VBA - VR&amp;E Block 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--PowerChart : Veteran Orders 
-</t>
-  </si>
-  <si>
-    <t>wf2008</t>
-  </si>
-  <si>
-    <t>1VA - VBA - 7131 Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--AccessHIM : ROI 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Product: AccessHIM 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Add a note to the request as necessary to indicate that no records were found. 
-Notify any necessary parties per VA Policy. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Add a note to the request as necessary in accordance with VA Policy. 
-</t>
-  </si>
-  <si>
-    <t>wf1989</t>
-  </si>
-  <si>
-    <t>1VA - VBA - Deliver Exam Results</t>
-  </si>
-  <si>
-    <t>wf1998</t>
-  </si>
-  <si>
-    <t>1VA - VBS Scheduling - Ambulatory - Orders to Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: #VBA 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: 'Force Medical Necessity Check Against Content' option available for new 
-Medicare patients without insurance on file 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: changed from Future order placed to future appointment is scheduled -la 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: *gap for post IOC workflow -no issues for IOC. will need to resolve 
-notification of appointment post IOC 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: (PR) added off page reference 3/5/18 
-Revisit deceased patient appointment 
-type 
-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>wf1353</t>
   </si>
@@ -228,30 +34,43 @@
     <t>1VA - Registration/Scheduling - In Person Check In</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: If a patient remains in a single state for too long (for example, 15 minutes) 
+    <t xml:space="preserve">Work Step [27668] 
+Description: Update Patient Status to 'Arrived' 
+Comments: If a patient remains in a single state for too long (for example, 15 minutes) 
 an excess wait time counter can show on Patient Tracking. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: The default Modify Patient Conversation can launch automatically when selected 
+Future State: 1VA -Registration/Scheduling -In Person Check In 
+Cerner Workflow ID: 6623 (v. 14.0) Client Workflow ID: 1260 Last updated by Faizah Thernize, Aug 20, 2019 3:26pm (UTC -4 hours) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [27556] 
+Description: Default Modify Patient Conversation launches. Verify/update Demographics, 
+Relationships, Ins and Alerts 
+Comments: The default Modify Patient Conversation can launch automatically when selected 
 within the Revenue Cycle Maintenance Tool 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: The default Modify Encounter Conversation can launch automatically when 
+    <t xml:space="preserve">Work Step [27561] 
+Description: Review,collect and confirm OHI 
+Comments: The default Modify Encounter Conversation can launch automatically when 
 selected within the Revenue Cycle Maintenance Tool 
 Eligibility checking 
 requires Transaction Services Integration 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Automatically launching the Images window is enabled within the Revenue Cycle 
+    <t xml:space="preserve">Decision [27651] 
+Description: Images/documents gathered at check in? 
+Comments: Automatically launching the Images window is enabled within the Revenue Cycle 
 Maintenance Tool 
 Content 360 is required for images integration 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Review,collect and confirm OHI 
+    <t xml:space="preserve">Off Page Reference [27680] 
+Workflow Link: 1VA -Registration -OHI Collection 
+Comments: Review,collect and confirm OHI 
 </t>
   </si>
   <si>
@@ -261,7 +80,9 @@
     <t>1VA - Scheduling - Ambulatory - No Show Process</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: A tiny window opens below the 'Confirmed' text with options for 'Check In' and 
+    <t xml:space="preserve">Work Step [9325] 
+Description: Click the 'Confirmed' text / link 
+Comments: A tiny window opens below the 'Confirmed' text with options for 'Check In' and 
 'No Show' 
 </t>
   </si>
@@ -278,17 +99,37 @@
     <t>1VA - Scheduling - Ambulatory - Orders to Scheduling</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: (PR) added off page reference 3/5/18 
+    <t xml:space="preserve">Work Step [38628] 
+Description: Complete required appointment details in Revenue Cycle 
+Future State: 1VA -Scheduling -Ambulatory -Orders to Scheduling 
+Cerner Workflow ID: 1864 (v. 1.0) Client Workflow ID: 319 Last updated by Riley Colley, Oct 03, 2019 10:50am (UTC -4 hours) 
+Comments: 'Force Medical Necessity Check Against Content' option available for new 
+Medicare patients without insurance on file 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start/Stop [38686] 
+Description: Future Appointment is scheduled 
+Comments: changed from Future order placed to future appointment is scheduled -la 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Page Reference [38725] 
+Workflow Link: 1VA -Scheduling -Ambulatory -Schedule Appointment 
+Comments: (PR) added off page reference 3/5/18 
 </t>
   </si>
   <si>
     <t>wf222</t>
   </si>
   <si>
-    <t>1VA - VBA - Scheduling - Ambulatory - VBA Record an Appointment Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Added application. MNelson 
+    <t>1VA - Scheduling - Ambulatory - Record an Appointment Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [4] 
+Description: From Appointments Perspective in Revenue Cycle , locate the appt, right click, 
+and select Record Contact for Appointment 
+Comments: Added application. MNelson 
 </t>
   </si>
   <si>
@@ -298,25 +139,36 @@
     <t>1VA - Scheduling - Ambulatory - Reschedule Appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: 'Person Search' window opens 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: DEERS retrieve occurs before opening to patient's 'Future Appointments' view 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Small window opens with various menu options including 'Reschedule 
+    <t xml:space="preserve">Work Step [9274] 
+Description: Within Revenue Cycle, search for veteran by clicking the magnifying glass in top 
+left corner of window to open 'Person Search' 
+Comments: 'Person Search' window opens 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [30469] 
+Description: Click 'Select' 
+Comments: DEERS retrieve occurs before opening to patient's 'Future Appointments' view 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [9272] 
+Description: Within 'Future Appointments' tab, right click appointment to be rescheduled 
+Comments: Small window opens with various menu options including 'Reschedule 
 Appointment' 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: The 'Add Appointment' tab in the bottom half of the window changes to ' 
+    <t xml:space="preserve">Work Step [30472] 
+Description: Select 'Reschedule Appointment' 
+Comments: The 'Add Appointment' tab in the bottom half of the window changes to ' 
 Reschedule Appointment' with appointment details 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: 'Reschedule Appointment' tab populates with a new additional drop-down field 
+    <t xml:space="preserve">Work Step [9269] 
+Description: Select new appointment date and time 
+Comments: 'Reschedule Appointment' tab populates with a new additional drop-down field 
 requesting 'Reschedule Reason' 
 </t>
   </si>
@@ -327,48 +179,51 @@
     <t>1VA - Scheduling - Ambulatory - Schedule Appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Buttons for 3 methods for searching for an appointment change from unavailable 
+    <t xml:space="preserve">Work Step [29068] 
+Description: In the 'Add Appointment Plus' tab, search for the Appointment Type . 
+Comments: Buttons for 3 methods for searching for an appointment change from unavailable 
 to available (e.g. 'First Available') 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: 'First Available Times' window opens with 'Suggested Results' for available 
+    <t xml:space="preserve">Work Step [29073] 
+Description: Click on the 'First Available' button (recommended scheduling method) 
+Comments: 'First Available Times' window opens with 'Suggested Results' for available 
 appointments 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Appointment details populates the 'Future Appointments' list 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: 'Schedule' window opens with a calendar of appointment slots for the requested 
+    <t xml:space="preserve">Work Step [29090] 
+Description: Click 'Confirm' 
+Comments: Appointment details populates the 'Future Appointments' list 
+Future State: 1VA -Scheduling -Ambulatory -Schedule Appointment 
+Cerner Workflow ID: Client Workflow ID: 32 Last updated by Stephen Brooks, Oct 17, 2019 8:26am (UTC -4 hours) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [29074] 
+Description: Click on the 'Schedule' button 
+Comments: 'Schedule' window opens with a calendar of appointment slots for the requested 
 resource(s) 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: 'Recurring Frequencies' window opens with various search criteria -DO NOT 
+    <t xml:space="preserve">Work Step [29075] 
+Description: Click on the 'Recur' button 
+Comments: 'Recurring Frequencies' window opens with various search criteria -DO NOT 
 change 'Patient Duration' minutes 
 </t>
   </si>
   <si>
-    <t>wf1999</t>
-  </si>
-  <si>
-    <t>1VA - Scheduling - Ambulatory - VBA Record an Appointment Contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Products: 
--Revenue Cycle : Appointments Perspective 
-</t>
-  </si>
-  <si>
     <t>wf1993</t>
   </si>
   <si>
     <t>1VA - VBA - Capacity &amp; Capability &amp; Routing (IOC)</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: ERRA data means the current C&amp;P exam request inventory data, data on past 
+    <t xml:space="preserve">Start/Stop [12] 
+Description: Enter workflow -Pre-Condition: ERRA data is available within the CDW 
+Comments: ERRA data means the current C&amp;P exam request inventory data, data on past 
 C&amp;P 
 exam requests that were cancelled and/or completed, and VHA facility 
 capabilities (i.e., enabled/disabled DBQs based on VHA's internal personnel 
@@ -377,11 +232,21 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Products: 
+    <t xml:space="preserve">Work Step [3] 
+Description: Access ERRA tool to determine where to send Exam Request 
+Comments: Products: 
 -ERRA tool : Determine location to send request 
 -Dependency on 
 the data being available for ERRA 
-</t>
+Future State: 1VA -VBA -Capacity &amp; Capability &amp; Routing (IOC) 
+Cerner Workflow ID: Client Workflow ID: 1993 Last updated by Stephen Brooks, Oct 08, 2019 10:59am (UTC -4 hours) 
+</t>
+  </si>
+  <si>
+    <t>wf1989</t>
+  </si>
+  <si>
+    <t>1VA - VBA - Deliver Exam Results</t>
   </si>
   <si>
     <t>wf1990</t>
@@ -390,27 +255,37 @@
     <t>1VA - VBA - Enterprise Medical Records Search (IOC)</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Products: 
+    <t xml:space="preserve">Work Step [11] 
+Description: VBA User Reviews CAPRI for EHRM Location 
+Comments: Products: 
 -CAPRI : Enterprise Search 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Products: 
+    <t xml:space="preserve">Work Step [3] 
+Description: If EHRM Location is identified, Special Issue is applied to claim 
+Comments: Products: 
 -VBMS 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Products: 
+    <t xml:space="preserve">Work Step [5] 
+Description: Pilot user retrieves claim from pilot queue 
+Comments: Products: 
 -TBD 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Products: 
+    <t xml:space="preserve">Work Step [9] 
+Description: In JLV -retrieve all DOD pre go-live historical records (Current Process) 
+Comments: Products: 
 -JLV 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Products: 
+    <t xml:space="preserve">System [15] 
+Description: Clinical XR creates pdf document 
+Comments: Products: 
 -Clinical Reporting XR 
 Note: May access Clinical Reporting XR 
 from AccessHIM 
@@ -423,16 +298,24 @@
     <t>1VA - VBA - Exam-Management - Child Orders (IOC)</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Products: 
+    <t xml:space="preserve">Work Step [4] 
+Description: Identify detail order appointment type (7 different types allowed) 
+Comments: Products: 
 -PowerChart : ? 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Complete one order at a time. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments: Interfaces: 
+    <t xml:space="preserve">Work Step [5] 
+Description: Identify DBQ(s) associated to order type. 
+Comments: Complete one order at a time. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [6] 
+Description: Identify Appointment Length 
+Future State: 1VA -VBA -Exam-Management -Child Orders (IOC) 
+Cerner Workflow ID: Client Workflow ID: 1995 Last updated by Paul Marshall, Oct 15, 2019 2:25pm (UTC -4 hours) 
+Comments: Interfaces: 
 -SIU_S12 : C&amp;P Exam is scheduled : Notify VBMS that exam is 
 scheduled (post IOC) 
 -SIU_S13 : C&amp;P Exam is rescheduled : Notify VBMS that 
@@ -444,16 +327,285 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Comments: Interfaces: 
+    <t xml:space="preserve">Start/Stop [8] 
+Description: Sign child order. 
+Comments: Interfaces: 
 -ORM : VHA Creates Child Orders : VHA Creates Child Order to map 
 to original request (post IOC) 
 </t>
   </si>
   <si>
-    <t>Flow ID</t>
-  </si>
-  <si>
-    <t>Flow Name / Comments</t>
+    <t>wf1866</t>
+  </si>
+  <si>
+    <t>1VA - VBA - Exam-Management (IOC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [5] 
+Description: VBA Staff selects PowerChart from task bar within Revenue Cycle 
+Comments: Products: 
+-PowerChart : Search and View Medical Records 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [10] 
+Description: Open 2507 PowerForm and document DBQ by body system and complete 
+necessary documentation. 
+Comments: Products: 
+-PowerForm : Form 2507 to Document Requested DBQs 
+Interfaces: 
+-
+ORM : New Order Request Entered by VBA : Notify VBMS that exam is ordered ( 
+Post IOC) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [74] 
+Description: Run Clinical XR report for Generic Encounter, create pdf and download to local 
+directory, upload to VBMS veteran's e-Folder 
+Comments: Products: 
+-Clinical Reporting XR : Generic Encounter 
+Interfaces: 
+-Manual 
+upload to VBMS Folder 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [47] 
+Description: Open Message Center, choose 2507 message template. Send message to 
+appropriate pool. 
+Comments: Products: 
+-Message Center : 2507 Message Template 
+Future State: 1VA -VBA -Exam-Management (IOC) 
+Cerner Workflow ID: Client Workflow ID: 1866 Last updated by Paul Marshall, Oct 17, 2019 11:09am (UTC -4 hours) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [106] 
+Description: Triage staff receives 2507 order request in appropriate future requests queue. 
+Comments: Products: 
+-Message Center : Message Pool 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [55] 
+Description: Validate special priority, sensitivity level, and jurisdiction. Address additional 
+comments entered in referral order. 
+Comments: Products: 
+-PowerChart : Review Order 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [67] 
+Description: Validate that the 2507 request form is correct. 
+Comments: Interfaces: 
+-ORR : Notify VBMS that exam request is accepted. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [150] 
+Description: Send message to VBA User via Cerner Messaging asking question that needs to 
+be clarified 
+Comments: Question: How is this message sent / received at IOC? 
+Interfaces: 
+-ORR : 
+VBA Staff Discontinue Order Request : Notify VBMS of order discontinued as 
+requested (post IOC) 
+-ORR : VHA User Requests Clarification : VHA reviews 
+Future State: 1VA -VBA -Exam-Management (IOC) 
+Cerner Workflow ID: Client Workflow ID: 1866 Last updated by Paul Marshall, Oct 17, 2019 11:09am (UTC -4 hours) 
+Exam Request and requests clarification (post IOC) 
+-ORM : VHA User Requests 
+Clarification : VHA reviews Exam Request and requests clarification (post IOC) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [126] 
+Description: 2507 (Dummy / Parent) order being rejected will generate an HL7 ORU / ORM 
+message to DAS -Notification back to VBA via message p 
+Comments: VBA is requesting a pdf document be sent that can be loaded in the Veteran's 
+eFolder 
+Interfaces: 
+-Reject PDF to Veteran's eFolder (IOC) 
+-ORR : Order 
+Request Canceled by VHA Staff (Post IOC) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Page Reference [42] 
+Workflow Link: 1VA -VBA Scheduling -Ambulatory -Orders to Scheduling 
+Comments: Note: Sub-flow belongs to Scheduling Council 
+Products: 
+-Cerner Scheduling 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [16] 
+Future State: 1VA -VBA -Exam-Management (IOC) 
+Cerner Workflow ID: Client Workflow ID: 1866 Last updated by Paul Marshall, Oct 17, 2019 11:09am (UTC -4 hours) 
+Description: Prep: C&amp;P Provider reviews request and DBQs needed for exam. 
+Comments: Products: 
+-Ambulatory Organizer : Clinician's view of scheduled appointments 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [18] 
+Description: From workflow Mpage Provider clicks Assessments component and selects the 
+drop down to access DBQ form. 
+Step Impact: Training 
+Comments: Products: 
+-PowerChart : Mpage : Assessment Component 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision [142] 
+Description: Did patient show for appointment 
+Comments: Interfaces: 
+-SIU_Z01 : C&amp;P Exam is checked in : Notify VBMS that exam is 
+checked in (post IOC) 
+-ORM : C&amp;P Exam is Completed : Notify VBMS that exam 
+occurred (post IOC) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start/Stop [21] 
+Description: Veteran checks out at the front desk unless receiving A.C.E. Evaluation. 
+Comments: Products: 
+-Revenue Cycle : Patient Access 
+</t>
+  </si>
+  <si>
+    <t>wf2048</t>
+  </si>
+  <si>
+    <t>1VA - VBA - Letter - Response - Workflow</t>
+  </si>
+  <si>
+    <t>wf1987</t>
+  </si>
+  <si>
+    <t>1VA - VBA - Perform Examination (IOC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [3] 
+Description: Read 2507 Detailed order from Generic PowerForm 
+Comments: Products: 
+-PowerForm : 2507 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [4] 
+Description: Clinician will search the following sites based on availability of data (VBMS, 
+EHRM, CAPRI, JLV, AHLTA) 
+Comments: Products: 
+-PowerChart : 
+-VBMS 
+-CAPRI 
+-JLV 
+-AHLTA 
+Future State: 1VA -VBA -Perform Examination (IOC) 
+Cerner Workflow ID: Client Workflow ID: 1987 Last updated by Stephen Brooks, Oct 20, 2019 12:49pm (UTC -4 hours) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [6] 
+Description: Determine applicable DBQ(s) 
+Comments: Products: 
+-PowerChart : PowerForm : Specific DBQ 
+</t>
+  </si>
+  <si>
+    <t>wf1999</t>
+  </si>
+  <si>
+    <t>1VA - VBA - Scheduling - Ambulatory - Record a Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [4] 
+Description: In the appointment request queue locate the request, right click, and select Record 
+Contact 
+Comments: Products: 
+-Revenue Cycle : Appointments Perspective 
+</t>
+  </si>
+  <si>
+    <t>wf1873</t>
+  </si>
+  <si>
+    <t>1VA - VBA - VR&amp;E Block 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start/Stop [3] 
+Description: VBA user opens Power Chart. 
+Comments: Products: 
+-PowerChart : Veteran Orders 
+</t>
+  </si>
+  <si>
+    <t>wf1998</t>
+  </si>
+  <si>
+    <t>1VA - VBA Scheduling - Ambulatory - Orders to Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start/Stop [38723] 
+Description: Schedulable order placed in PowerChart 
+Comments: #VBA 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [38628] 
+Description: Complete required appointment details in Revenue Cycle 
+Comments: 'Force Medical Necessity Check Against Content' option available for new 
+Medicare patients without insurance on file 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [38757] 
+Description: Appointment is IDES. Contact per policy. 
+Comments: *gap for post IOC workflow -no issues for IOC. will need to resolve 
+notification of appointment post IOC 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Page Reference [38725] 
+Workflow Link: 1VA -Scheduling -Ambulatory -Schedule Appointment 
+Comments: (PR) added off page reference 3/5/18 
+Revisit deceased patient appointment 
+type 
+</t>
+  </si>
+  <si>
+    <t>wf2008</t>
+  </si>
+  <si>
+    <t>1VA - VBA-7131-Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [4] 
+Description: Open AccessHIM 
+Comments: Products: 
+-AccessHIM : ROI 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [13] 
+Description: Requests tied to VBA requester source display in Request Queue 
+Comments: Product: AccessHIM 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [50] 
+Description: Add a note to the request that no records were located. Update request status. 
+Comments: Add a note to the request as necessary to indicate that no records were found. 
+Notify any necessary parties per VA Policy. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work Step [19] 
+Description: Add a note to the request as necessary. 
+Comments: Add a note to the request as necessary in accordance with VA Policy. 
+</t>
   </si>
 </sst>
 </file>
@@ -1303,462 +1455,462 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="98" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="12" style="1"/>
+    <col min="2" max="2" width="122.9296875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="228" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="327.75" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B60" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="228" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B68" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="B69" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>